--- a/biology/Neurosciences/Neuroéthologie/Neuroéthologie.xlsx
+++ b/biology/Neurosciences/Neuroéthologie/Neuroéthologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neuro%C3%A9thologie</t>
+          <t>Neuroéthologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La neuroéthologie (du grec νεῦρον - neuron, « nerf » et ἦθος - ethos, « mœurs ») est une approche évolutionnaire et comparative de l'étude du comportement animal et des mécanismes sous-jacents de contrôle par le système nerveux[1],[2],[3].  
-Cette branche interdisciplinaire des neurosciences s'efforce de comprendre comment le système nerveux central traduit les stimuli biologiquement importants en comportements naturels. Par exemple, beaucoup de chauves-souris sont capables d'écholocalisation tant pour la capture des proies que pour la navigation. Le système auditif des chauves-souris est souvent cité comme exemple de la manière dont les propriétés acoustiques des sons peuvent être converties en carte sensorielle à partir des caractéristiques des sons utiles sur le plan du comportement[4]. Les neuroéthologues espèrent découvrir les principes généraux du système nerveux de l'étude des animaux aux comportements excessifs ou spécialisés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La neuroéthologie (du grec νεῦρον - neuron, « nerf » et ἦθος - ethos, « mœurs ») est une approche évolutionnaire et comparative de l'étude du comportement animal et des mécanismes sous-jacents de contrôle par le système nerveux.  
+Cette branche interdisciplinaire des neurosciences s'efforce de comprendre comment le système nerveux central traduit les stimuli biologiquement importants en comportements naturels. Par exemple, beaucoup de chauves-souris sont capables d'écholocalisation tant pour la capture des proies que pour la navigation. Le système auditif des chauves-souris est souvent cité comme exemple de la manière dont les propriétés acoustiques des sons peuvent être converties en carte sensorielle à partir des caractéristiques des sons utiles sur le plan du comportement. Les neuroéthologues espèrent découvrir les principes généraux du système nerveux de l'étude des animaux aux comportements excessifs ou spécialisés.
 </t>
         </is>
       </c>
